--- a/assets/class_notebook.xlsx
+++ b/assets/class_notebook.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17130" windowHeight="4080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Center</t>
+  </si>
+  <si>
+    <t>Archer</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,6 +422,21 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>40</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">

--- a/assets/class_notebook.xlsx
+++ b/assets/class_notebook.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>Archer</t>
+  </si>
+  <si>
+    <t>Swordsman</t>
+  </si>
+  <si>
+    <t>Scout</t>
+  </si>
+  <si>
+    <t>Knight</t>
   </si>
 </sst>
 </file>
@@ -365,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +415,7 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D2">
         <v>10</v>
@@ -432,7 +441,7 @@
         <v>7</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -442,10 +451,60 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>65</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>70</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/class_notebook.xlsx
+++ b/assets/class_notebook.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -481,7 +481,7 @@
         <v>2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>

--- a/assets/class_notebook.xlsx
+++ b/assets/class_notebook.xlsx
@@ -444,7 +444,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -484,7 +484,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -501,10 +501,10 @@
         <v>6</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/assets/class_notebook.xlsx
+++ b/assets/class_notebook.xlsx
@@ -377,7 +377,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,13 +438,13 @@
         <v>40</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -458,13 +458,13 @@
         <v>65</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -478,13 +478,13 @@
         <v>45</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -498,13 +498,13 @@
         <v>70</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
